--- a/rootpath_PicWall/rootpath_tools/project_ReviewLocation/ReviewLocation_results/plate.location.table.xlsx
+++ b/rootpath_PicWall/rootpath_tools/project_ReviewLocation/ReviewLocation_results/plate.location.table.xlsx
@@ -381,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HC27SP8-1</t>
+          <t>CR501K1-001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype194.2</t>
+          <t>clonotype100.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -515,26 +515,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HC27SP8-2</t>
+          <t>CR501K1-006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype467.1</t>
+          <t>clonotype89.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -570,32 +570,32 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HC27SP8-6</t>
+          <t>CR501K1-013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype377.1</t>
+          <t>clonotype124.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -631,32 +631,32 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>E2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HC27SP8-9</t>
+          <t>CR501K1-014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype561.1</t>
+          <t>clonotype67.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -692,32 +692,32 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>F2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HC27SP8-11</t>
+          <t>CR501K1-017</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype245.1</t>
+          <t>clonotype123.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -753,32 +753,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HC27SP8-12</t>
+          <t>CR501K1-021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype556.3</t>
+          <t>clonotype132.1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -814,32 +814,32 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HC27SP8-15</t>
+          <t>CR501K1-023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype574.1</t>
+          <t>clonotype132.2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -875,32 +875,32 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HC27SP8-20</t>
+          <t>CR501K1-027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype154.1</t>
+          <t>clonotype7.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -936,32 +936,32 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>C4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HC27SP8-23</t>
+          <t>CR501K1-029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype372.1</t>
+          <t>clonotype21.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -997,32 +997,32 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>E4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HC27SP8-24</t>
+          <t>CR501K1-030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype194.4</t>
+          <t>clonotype32.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1058,32 +1058,32 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HC27SP8-25</t>
+          <t>CR501K1-039</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype506.1</t>
+          <t>clonotype105.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>G5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HC27SP8-26</t>
+          <t>CR501K1-049</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype279.1</t>
+          <t>clonotype31.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1180,32 +1180,32 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>A7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HC27SP8-28</t>
+          <t>CR501K1-052</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype660.1</t>
+          <t>clonotype15.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24</v>
+        <v>328</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HC27SP8-31</t>
+          <t>CR501K1-053</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype309.2</t>
+          <t>clonotype82.2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1302,32 +1302,32 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>E7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HC27SP8-32</t>
+          <t>CR501K1-063</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype17.2</t>
+          <t>clonotype87.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1363,32 +1363,32 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>G8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HC27SP8-33</t>
+          <t>CR501K1-069</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype201.2</t>
+          <t>clonotype146.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1424,32 +1424,32 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HC27SP8-36</t>
+          <t>CR501K1-072</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype222.1</t>
+          <t>clonotype2.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1485,32 +1485,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>H9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HC27SP8-37</t>
+          <t>CR501K1-073</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype646.1</t>
+          <t>clonotype75.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="K20" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1546,32 +1546,32 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HC27SP8-40</t>
+          <t>CR501K1-074</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype285.3</t>
+          <t>clonotype5.2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1607,32 +1607,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>B10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HC27SP8-46</t>
+          <t>CR501K1-079</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype629.2</t>
+          <t>clonotype102.1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1668,32 +1668,32 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>G10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HC27SP8-48</t>
+          <t>CR501K1-082</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype201.1</t>
+          <t>clonotype90.1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1729,22 +1729,22 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>B11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HC27SP8-49</t>
+          <t>CR501K1-085</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype72.1</t>
+          <t>clonotype28.1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1790,32 +1790,32 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>E11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50</v>
+        <v>363</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HC27SP8-56</t>
+          <t>CR501K1-088</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype368.1</t>
+          <t>clonotype155.1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1851,32 +1851,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>H11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HC27SP8-59</t>
+          <t>CR501K1-0101</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype105.1</t>
+          <t>clonotype30.1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1900,44 +1900,44 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>E1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HC27SP8-70</t>
+          <t>CR501K1-0104</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype236.1</t>
+          <t>clonotype46.1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1961,44 +1961,44 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>H1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HC27SP8-72</t>
+          <t>CR501K1-0107</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype105.2</t>
+          <t>clonotype64.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2022,44 +2022,44 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>C2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HC27SP8-83</t>
+          <t>CR501K1-0119</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype556.1</t>
+          <t>clonotype36.1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2083,44 +2083,44 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>G3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HC27SP8-84</t>
+          <t>CR501K1-0122</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype285.4</t>
+          <t>clonotype127.1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2144,44 +2144,44 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="K30" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>B4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HC27SP8-88</t>
+          <t>CR501K1-0129</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype89.1</t>
+          <t>clonotype25.3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2205,44 +2205,44 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>H11</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HC27SP8-89</t>
+          <t>CR501K1-0140</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype344.3</t>
+          <t>clonotype23.1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2266,44 +2266,44 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>D6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HC27SP8-90</t>
+          <t>CR501K1-0143</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype526.1</t>
+          <t>clonotype86.1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2327,44 +2327,44 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="K33" t="n">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>G6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HC27SP8-91</t>
+          <t>CR501K1-0150</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype250.1</t>
+          <t>clonotype99.1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2388,44 +2388,44 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HC27SP8-94</t>
+          <t>CR501K1-0156</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype519.1</t>
+          <t>clonotype25.2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2449,80 +2449,2886 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HC27SP8-95</t>
+          <t>CR501K1-0158</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HC27.SP08.SynWel.clonotype75.1</t>
+          <t>clonotype20.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>158</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>74</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CR501K1-0161</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>clonotype112.1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>161</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>78</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CR501K1-0165</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>clonotype8.1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>165</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>82</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CR501K1-0169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>clonotype27.1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>1396</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1396</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>100.000</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="n">
-        <v>95</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="K39" t="n">
+        <v>169</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>85</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CR501K1-0171</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>clonotype43.1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>171</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>89</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CR501K1-0175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>clonotype79.1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" t="n">
+        <v>175</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>113</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CR501K1-0198</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>clonotype144.1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>198</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>114</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CR501K1-0199</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>clonotype6.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>199</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>119</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CR501K1-0204</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>clonotype25.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>204</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>122</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CR501K1-0207</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>clonotype85.1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>207</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>123</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CR501K1-0208</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>clonotype19.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>208</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>129</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CR501K1-0213</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>clonotype66.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>213</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>132</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CR501K1-0216</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>clonotype14.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>216</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>140</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CR501K1-0223</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>clonotype158.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>223</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>146</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CR501K1-0229</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>clonotype25.4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>229</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>149</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CR501K1-0231</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>clonotype11.1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>231</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>150</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CR501K1-0232</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>clonotype82.1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>232</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>155</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CR501K1-0237</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>clonotype107.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>237</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>158</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CR501K1-0240</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>clonotype45.1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>240</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>160</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CR501K1-0242</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>clonotype80.1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>37</v>
+      </c>
+      <c r="K55" t="n">
+        <v>242</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>161</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CR501K1-0243</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>clonotype98.1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>243</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>164</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CR501K1-0246</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>clonotype22.1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>246</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>169</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CR501K1-0250</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>clonotype24.1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>250</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>174</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CR501K1-0255</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>clonotype97.1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>255</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>180</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CR501K1-0260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>clonotype129.1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>260</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>184</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CR501K1-0264</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>clonotype12.1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>264</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>185</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CR501K1-0265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>clonotype143.2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>265</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>187</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CR501K1-0267</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>clonotype3.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>267</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>188</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CR501K1-0268</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>clonotype20.2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>268</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>193</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CR501K1-0272</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>clonotype154.1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>17</v>
+      </c>
+      <c r="K65" t="n">
+        <v>272</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>194</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CR501K1-0273</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>clonotype133.1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" t="n">
+        <v>273</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>195</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CR501K1-0274</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>clonotype42.1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>274</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>197</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CR501K1-0276</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>clonotype126.1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K68" t="n">
+        <v>276</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>208</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CR501K1-0287</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>clonotype48.1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>15</v>
+      </c>
+      <c r="K69" t="n">
+        <v>287</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>212</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CR501K1-0290</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>clonotype125.1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>290</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>215</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CR501K1-0293</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>clonotype91.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>293</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>217</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CR501K1-0295</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>clonotype73.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>295</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>232</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CR501K1-0309</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>clonotype3.2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>309</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>262</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CR501K1-0336</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>clonotype16.1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2167</v>
+      </c>
+      <c r="K74" t="n">
+        <v>336</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>270</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CR501K1-0343</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>clonotype97.2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>343</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>281</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CR501K1-0353</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>clonotype26.1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>353</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>287</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CR501K1-0359</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>clonotype105.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>38</v>
+      </c>
+      <c r="K77" t="n">
+        <v>359</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>G9</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>290</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CR501K1-0361</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>clonotype152.1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>361</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>292</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CR501K1-0363</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>clonotype35.1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>363</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>294</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CR501K1-0365</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>clonotype127.2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>365</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>298</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CR501K1-0369</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>clonotype145.1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>369</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>300</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CR501K1-0371</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>clonotype34.1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>100.000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>371</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C11</t>
         </is>
       </c>
     </row>
@@ -2599,22 +5405,14 @@
           <t>√</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="inlineStr">
         <is>
@@ -2623,13 +5421,13 @@
       </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="H4" s="1" t="inlineStr">
@@ -2637,30 +5435,26 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="F5" s="3" t="inlineStr">
@@ -2674,33 +5468,21 @@
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="H6" s="1" t="inlineStr">
@@ -2709,36 +5491,20 @@
         </is>
       </c>
       <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="n"/>
     </row>
     <row r="7">
@@ -2748,20 +5514,40 @@
         </is>
       </c>
       <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="n"/>
     </row>
     <row r="8">
@@ -2775,29 +5561,25 @@
           <t>√</t>
         </is>
       </c>
-      <c r="J8" s="2" t="n"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="T8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="H9" s="1" t="inlineStr">
@@ -2806,33 +5588,33 @@
         </is>
       </c>
       <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>√</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="T9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="H10" s="1" t="inlineStr">
@@ -2842,31 +5624,11 @@
       </c>
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
@@ -2934,12 +5696,24 @@
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="n"/>
     </row>
@@ -2952,7 +5726,11 @@
       <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
@@ -2974,7 +5752,11 @@
         </is>
       </c>
       <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
@@ -2982,7 +5764,11 @@
       <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="n"/>
     </row>
@@ -2997,9 +5783,17 @@
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="n"/>
@@ -3011,7 +5805,11 @@
           <t>E</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n"/>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
@@ -3019,7 +5817,11 @@
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="n"/>
@@ -3036,8 +5838,16 @@
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="n"/>
@@ -3051,14 +5861,26 @@
       </c>
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
       <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="n"/>
     </row>
@@ -3068,7 +5890,11 @@
           <t>H</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
@@ -3139,8 +5965,16 @@
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="n"/>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T23" s="2" t="n"/>
     </row>
     <row r="24">
@@ -3155,11 +5989,23 @@
       <c r="L24" s="2" t="n"/>
       <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T24" s="2" t="n"/>
     </row>
     <row r="25">
@@ -3179,10 +6025,18 @@
       <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="n"/>
       <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="P25" s="2" t="n"/>
       <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="n"/>
     </row>
@@ -3193,16 +6047,32 @@
         </is>
       </c>
       <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T26" s="2" t="n"/>
     </row>
     <row r="27">
@@ -3213,10 +6083,22 @@
       </c>
       <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="n"/>
@@ -3230,13 +6112,21 @@
           <t>F</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="P28" s="2" t="n"/>
       <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
@@ -3249,18 +6139,42 @@
           <t>G</t>
         </is>
       </c>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="n"/>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="H30" s="1" t="inlineStr">
@@ -3269,15 +6183,39 @@
         </is>
       </c>
       <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S30" s="2" t="n"/>
       <c r="T30" s="2" t="n"/>
     </row>
@@ -3338,9 +6276,21 @@
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T33" s="2" t="n"/>
     </row>
     <row r="34">
@@ -3349,7 +6299,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I34" s="2" t="n"/>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="n"/>
@@ -3382,8 +6336,16 @@
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="T35" s="2" t="n"/>
     </row>
     <row r="36">
@@ -3411,16 +6373,28 @@
           <t>E</t>
         </is>
       </c>
-      <c r="I37" s="2" t="n"/>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="n"/>
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="n"/>
     </row>
@@ -3449,15 +6423,27 @@
           <t>G</t>
         </is>
       </c>
-      <c r="I39" s="2" t="n"/>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="n"/>
       <c r="K39" s="2" t="n"/>
       <c r="L39" s="2" t="n"/>
       <c r="M39" s="2" t="n"/>
       <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="R39" s="2" t="n"/>
       <c r="S39" s="2" t="n"/>
       <c r="T39" s="2" t="n"/>
@@ -3473,7 +6459,11 @@
       <c r="K40" s="2" t="n"/>
       <c r="L40" s="2" t="n"/>
       <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="n"/>
       <c r="Q40" s="2" t="n"/>
